--- a/biology/Zoologie/Asiconops/Asiconops.xlsx
+++ b/biology/Zoologie/Asiconops/Asiconops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asiconops est un genre ou un sous-genre d'insectes diptères brachycères de la famille des Conopidae. Suivant les taxonomistes et les écozones qui leur sont liées, ce taxon regroupe des critères morphologiques différents et est ordonné de façon différente. Ce terme doit être utilisé avec une grande prudence car aucun consensus n'a été trouvé à l'heure actuelle (2013)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asiconops est un genre ou un sous-genre d'insectes diptères brachycères de la famille des Conopidae. Suivant les taxonomistes et les écozones qui leur sont liées, ce taxon regroupe des critères morphologiques différents et est ordonné de façon différente. Ce terme doit être utilisé avec une grande prudence car aucun consensus n'a été trouvé à l'heure actuelle (2013),.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Sous-genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Asiconops a été décrit par Sicien H. Chen[3] en 1939 en tant que sous-genre et avec pour base les espèces du continent asiatique. Repris par plusieurs taxonomiste, sa définition évolue d'une nomenclature locale à une autre.
-L'espèce type est Conops aureomaculatus Kröber, 1933[4],[5].
-Selon Stuke[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Asiconops a été décrit par Sicien H. Chen en 1939 en tant que sous-genre et avec pour base les espèces du continent asiatique. Repris par plusieurs taxonomiste, sa définition évolue d'une nomenclature locale à une autre.
+L'espèce type est Conops aureomaculatus Kröber, 1933,.
+Selon Stuke :
 Conops aureomaculatus Kröber, 1933
 Conops bilineatus Camras, 2000
 Conops chinensis Camras, 1960
@@ -526,7 +540,7 @@
 Conops szechwanensis Camras, 1960
 Conops thecus Camras, 1960
 Conops valoka Smith, 1966
-Selon Schneider[1], à propos de la faune australasienne :
+Selon Schneider, à propos de la faune australasienne :
 Conops aureolus Schneider, 2010
 Conops australianus Camras, 1961
 Conops satanicus Bigot, 1887
@@ -536,7 +550,7 @@
 Conops chvalai Schneider, 2010
 Conops sparsus Schneider, 2010
 Conops nigrescens Camras, 1961
-Selon Fauna Europaea                                      (28 mars 2019)[6], pondéré par le jeu des synonymie de Jens-Hermann Stuke [5] :
+Selon Fauna Europaea                                      (28 mars 2019), pondéré par le jeu des synonymie de Jens-Hermann Stuke  :
 C. elegans Meigen, 1824
 C. flavifrons Meigen, 1824
 C. insignis Loew, 1848
@@ -568,15 +582,17 @@
           <t>Genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gibson et Skevington[2] proposent en 2013 dans leur révision des genres de Conopidae d'élever Asiconops au rang de genre conservant son espèce-type Conops aureomaculatus Kröber, 1933 devenant dès lors Asiconops aureomaculatus (Kröber, 1933). 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gibson et Skevington proposent en 2013 dans leur révision des genres de Conopidae d'élever Asiconops au rang de genre conservant son espèce-type Conops aureomaculatus Kröber, 1933 devenant dès lors Asiconops aureomaculatus (Kröber, 1933). 
 Genre Asiconops (Chen, 1939) avec pour espèce-type Asiconops aureomaculatus Kröber, 1933
 Sous-genre Asiconops (Aegloconops) Gibson 2013 avec pour espèce-type Asiconops quadripunctatus Kröber, 1915
 Sous-genre Asiconops (Ceratoconops) Camras, 1955 avec pour espèce-type Asiconops ornatus Williston, 1892
 Sous-genre Asiconops (Diconops) Camras, 1957  avec pour espèce-type Asiconops trichus Camras, 1957
 Sous-genre Asiconops (Sphenoconops) Camras, 1955 avec pour espèce-type Asiconops nobilis Williston, 1892
-En 2017, Stuke[5] conserve le statut de sous-genre pour Asiconops définit par Chen. Il élève le sous-genre Aegloconops au niveau de genre et nomme son espèce-type Aegloconops quadripunctatus (Kröber, 1915), conservant le nom nouvellement créé par Gibson. Ceratoconops, Diconops, Sphenoconops redeviennent des sous-genre de Conops au sens de Camras.
+En 2017, Stuke conserve le statut de sous-genre pour Asiconops définit par Chen. Il élève le sous-genre Aegloconops au niveau de genre et nomme son espèce-type Aegloconops quadripunctatus (Kröber, 1915), conservant le nom nouvellement créé par Gibson. Ceratoconops, Diconops, Sphenoconops redeviennent des sous-genre de Conops au sens de Camras.
 </t>
         </is>
       </c>
